--- a/Tablas Multiplicador y Potencia.xlsx
+++ b/Tablas Multiplicador y Potencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\VACACIONES DICIEMBRE\ORGA\LABORATORIO\PRACTICAS\PRACTICA 2\MULTIPLICADOR Y POTENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\VACACIONES DICIEMBRE\ORGA\LABORATORIO\PRACTICAS\PRACTICA 2\MULTIPLICADOR Y POTENCIA\PRACTICA_2_ORGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61588A42-DD02-416F-9FC4-BF4E83249D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7776C-0954-45F4-BD41-6E589803C717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{4AEBC465-90DA-435A-99CD-6DBADA663178}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="75">
   <si>
     <t>MULTIPLICADOR 4 BITS</t>
   </si>
@@ -409,10 +409,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -434,9 +437,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,8 +796,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>179055</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -816,7 +816,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -850,71 +850,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>96475</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>185223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590755</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>179726</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0E9718-E1A6-3240-9492-E7969E565E9B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3212280" y="13181198"/>
-            <a:ext cx="494280" cy="381960"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Entrada de lápiz 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0E9718-E1A6-3240-9492-E7969E565E9B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3203640" y="13172198"/>
-              <a:ext cx="511920" cy="399600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419286</xdr:colOff>
       <xdr:row>78</xdr:row>
@@ -926,9 +861,9 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>16206</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
               <a:extLst>
@@ -946,7 +881,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Entrada de lápiz 8">
@@ -991,8 +926,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>171366</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
@@ -1011,7 +946,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Entrada de lápiz 9">
@@ -1056,8 +991,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>171135</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -1076,7 +1011,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -1108,71 +1043,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>191155</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>23175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>622544</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>162495</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29889E8-C6F0-BEA8-1085-52D06584DDCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3306960" y="13212878"/>
-            <a:ext cx="1190160" cy="139320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="Entrada de lápiz 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29889E8-C6F0-BEA8-1085-52D06584DDCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3298320" y="13204238"/>
-              <a:ext cx="1207800" cy="156960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1181,9 +1051,9 @@
       <xdr:rowOff>15846</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Entrada de lápiz 22">
               <a:extLst>
@@ -1201,7 +1071,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Entrada de lápiz 22">
@@ -1246,9 +1116,9 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>185662</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Entrada de lápiz 26">
               <a:extLst>
@@ -1266,7 +1136,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Entrada de lápiz 26">
@@ -1311,8 +1181,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>18214</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -1331,7 +1201,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -1376,8 +1246,8 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>164343</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Entrada de lápiz 28">
@@ -1396,7 +1266,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Entrada de lápiz 28">
@@ -1441,8 +1311,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>162104</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Entrada de lápiz 29">
@@ -1461,7 +1331,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Entrada de lápiz 29">
@@ -1506,8 +1376,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>156264</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Entrada de lápiz 30">
@@ -1526,7 +1396,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Entrada de lápiz 30">
@@ -1558,6 +1428,321 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>154297</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546457</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A7D47A-46B2-1C69-FFCF-EBA22FD3AE0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10896840" y="6493920"/>
+            <a:ext cx="1154160" cy="174600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A7D47A-46B2-1C69-FFCF-EBA22FD3AE0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10888200" y="6484920"/>
+              <a:ext cx="1171800" cy="192240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287617</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>188575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539977</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175915</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA35267-CDBE-8257-0DB0-ED22B729238B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11792160" y="6872640"/>
+            <a:ext cx="252360" cy="177840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Entrada de lápiz 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA35267-CDBE-8257-0DB0-ED22B729238B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11783520" y="6863640"/>
+              <a:ext cx="270000" cy="195480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>278737</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>496897</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167755</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Entrada de lápiz 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A511B-152F-F8C8-3036-9CC81071DBE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12545280" y="6519120"/>
+            <a:ext cx="218160" cy="142200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Entrada de lápiz 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864A511B-152F-F8C8-3036-9CC81071DBE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12536640" y="6510120"/>
+              <a:ext cx="235800" cy="159840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>287617</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>188575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="252360" cy="177840"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43D0F7C-A0A7-4046-9932-F055C629DB6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11792160" y="6872640"/>
+            <a:ext cx="252360" cy="177840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Entrada de lápiz 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43D0F7C-A0A7-4046-9932-F055C629DB6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11783520" y="6863640"/>
+              <a:ext cx="270000" cy="195480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278737</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25555</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="218160" cy="142200"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Entrada de lápiz 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F04047-E1F6-465F-B04E-DCCD8B97770D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12545280" y="6519120"/>
+            <a:ext cx="218160" cy="142200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Entrada de lápiz 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F04047-E1F6-465F-B04E-DCCD8B97770D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12536640" y="6510120"/>
+              <a:ext cx="235800" cy="159840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1605,62 +1790,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-12-13T13:07:43.146"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FFC114"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">858 2 24575,'-132'-2'0,"-142"5"0,216 2 0,-78 18 0,110-17 0,0 2 0,1 0 0,-1 1 0,2 2 0,-31 17 0,49-24 0,0 0 0,0 1 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1 1 0,1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,1 7 0,-1-7 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 0 0,1 1 0,-1-2 0,1 1 0,0 0 0,0-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0-1 0,0 1 0,1-1 0,12 3 0,70 8 0,128 3 0,94-18 0,-112 0 0,1981 2 0,-2176 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,4-4 0,-2-2 0,0 1 0,0-1 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,0-12 0,-1 18 0,1-15 0,0 0 0,-1 0 0,-3-31 0,2 46 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-7-2 0,-10-2 0,0 0 0,0 1 0,-1 1 0,0 1 0,-42-3 0,-114 9 0,76 0 0,-1986-2 0,2069 0-341,0-2 0,0 0-1,-24-7 1,26 5-6485</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-12-13T13:07:55.685"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#AB008B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2899 25 24575,'-3'-2'0,"0"-1"0,-1 1 0,0-1 0,1 1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-8 0 0,-58-1 0,48 2 0,-1692 0 0,796 1 0,912-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-10 6 0,11-6 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 2 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,2 7 0,-2-6 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,7 3 0,30 14 0,0-2 0,2-1 0,0-3 0,48 10 0,-35-9 0,-36-9 0,0 0 0,1-1 0,0-2 0,26 2 0,941-4 0,-459-3 0,612 2 0,-1137 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,6-6 0,-7 6 0,-1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,-2-4 0,-1-2 0,-1 0 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1 0 0,0 0 0,-1 1 0,0 0 0,0 1 0,-15-7 0,-15-5 0,-71-21 0,87 31 0,-24-6-273,-1 3 0,0 2 0,-1 2 0,-95 0 0,125 6-6553</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2022-12-13T16:27:52.353"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -1673,7 +1802,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1701,7 +1830,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1729,7 +1858,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1757,7 +1886,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1785,7 +1914,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1810,6 +1939,118 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1060 73 24575,'-2'-3'0,"0"0"0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,-5-2 0,2 1 0,-14-6 0,-1 1 0,1 1 0,-1 0 0,0 2 0,0 0 0,-30 0 0,-138 5 0,80 3 0,-17-6 0,-135 4 0,255-1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,-2 6 0,3-3 0,-1 1 0,2 0 0,-1 0 0,1 1 0,1-1 0,0 0 0,0 1 0,1-1 0,0 0 0,1 1 0,0-1 0,1 0 0,0 1 0,6 14 0,-5-18 0,1 1 0,0-1 0,0 0 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1-1 0,1 1 0,-1-1 0,1 0 0,0-1 0,0 0 0,0 0 0,11 4 0,15 6 0,1-1 0,45 10 0,-24-13 0,0-2 0,0-3 0,1-2 0,94-8 0,-16 2 0,-102 2 0,-1-2 0,1 0 0,-1-2 0,0-2 0,0-1 0,-1-1 0,0-1 0,-1-2 0,0-1 0,29-18 0,-53 27 0,0 0 0,0 1 0,0-2 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 1 0,0-2 0,0 1 0,0-12 0,-1 14 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,-5-3 0,-13-4-273,0 1 0,0 0 0,-1 2 0,-32-5 0,32 8-6553</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-14T18:01:34.404"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1757 45 24575,'-1636'0'0,"1631"0"0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-2 6 0,1-3 0,0-1 0,1 1 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,5 10 0,-6-14 0,2 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,6 1 0,7 2 0,0-1 0,31 3 0,16 4 0,-30-2 0,1-1 0,0-2 0,60 2 0,110-10 0,-75-1 0,1320 3 0,-1425 2 0,-1 1 0,0 1 0,0 1 0,31 10 0,28 7 0,31 5 0,-75-16 0,0-2 0,1-1 0,0-2 0,46 0 0,-6-6 0,98-3 0,-172 2 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 1 0,-1-1 0,1 0 0,3-6 0,0-1 0,0 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,3-20 0,-6 30 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1 0 0,-4-5 0,1 3 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-9-1 0,-8-3 0,0 2 0,-1 1 0,-39-4 0,-251-46 0,232 39 0,-124-8 0,168 19 0,-59-14 0,65 11 0,0 1 0,0 2 0,-43-2 0,34 7 0,1-1 0,0-2 0,0-2 0,-73-16 0,56 6-1365,33 10-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-14T18:01:35.881"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">535 51 24575,'-10'-1'0,"0"-1"0,-1 0 0,1-1 0,-15-6 0,2 1 0,-4 1 0,-1 1 0,1 1 0,-1 1 0,-1 2 0,1 0 0,0 2 0,-44 6 0,64-5 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 2 0,0-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,-5 10 0,3-5 0,1 1 0,1 0 0,0-1 0,1 2 0,0-1 0,0 0 0,2 1 0,-1 0 0,2 0 0,-1 0 0,2 13 0,0-10 0,0-1 0,2 1 0,-1 0 0,2-1 0,8 29 0,-8-38 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,1 0 0,9 4 0,-1-1 0,-1-1 0,1-1 0,0 0 0,1-1 0,-1-1 0,24 2 0,92-6 0,-58-1 0,-54 3 0,-1-1 0,0 0 0,0-2 0,0 0 0,-1 0 0,1-2 0,-1 0 0,28-12 0,-38 13 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-2-1 0,1 1 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-1-12 0,0 7 11,0 0 0,-2-1 0,1 1 0,-2 0 0,1 0 0,-2 0-1,1 0 1,-2 0 0,0 0 0,-7-16 0,7 21-104,-1-1 0,0 1 1,0 0-1,0 0 0,-1 1 0,0 0 0,0 0 0,-1 0 1,1 1-1,-1 0 0,-1 0 0,1 0 0,0 1 1,-1 0-1,-14-4 0,2 2-6733</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-14T18:01:37.773"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">606 67 24575,'-1'-1'0,"1"0"0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,-29-11 0,23 9 0,-17-3 0,1 1 0,0 1 0,-1 1 0,0 1 0,0 1 0,0 1 0,-26 4 0,-22-1 0,44-4 0,11 1 0,0 0 0,1 1 0,-1 0 0,-21 6 0,34-6 0,0 0 0,0 1 0,0 0 0,0 0 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 0,0 1 0,0-1 0,-4 8 0,1 6 0,0-1 0,1 1 0,1 0 0,0 0 0,2 0 0,0 0 0,1 1 0,1-1 0,0 1 0,5 27 0,-4-42 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,6 0 0,10 2 0,0-2 0,0 0 0,0-1 0,20-2 0,-5 0 0,-30 2 0,23 0 0,0-1 0,0-1 0,0-2 0,40-9 0,-59 10 0,-1 1 0,0-1 0,1-1 0,-1 1 0,-1-1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-2-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,4-10 0,-2-4-17,-1 1-1,-1-1 1,-1 1-1,0-1 0,-2 0 1,-3-34-1,1 2-1224,2 33-5584</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-14T18:02:22.212"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">535 51 24575,'-10'-1'0,"0"-1"0,-1 0 0,1-1 0,-15-6 0,2 1 0,-4 1 0,-1 1 0,1 1 0,-1 1 0,-1 2 0,1 0 0,0 2 0,-44 6 0,64-5 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 2 0,0-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,-5 10 0,3-5 0,1 1 0,1 0 0,0-1 0,1 2 0,0-1 0,0 0 0,2 1 0,-1 0 0,2 0 0,-1 0 0,2 13 0,0-10 0,0-1 0,2 1 0,-1 0 0,2-1 0,8 29 0,-8-38 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,1 0 0,9 4 0,-1-1 0,-1-1 0,1-1 0,0 0 0,1-1 0,-1-1 0,24 2 0,92-6 0,-58-1 0,-54 3 0,-1-1 0,0 0 0,0-2 0,0 0 0,-1 0 0,1-2 0,-1 0 0,28-12 0,-38 13 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-2-1 0,1 1 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1 0 0,-1-12 0,0 7 11,0 0 0,-2-1 0,1 1 0,-2 0 0,1 0 0,-2 0-1,1 0 1,-2 0 0,0 0 0,-7-16 0,7 21-104,-1-1 0,0 1 1,0 0-1,0 0 0,-1 1 0,0 0 0,0 0 0,-1 0 1,1 1-1,-1 0 0,-1 0 0,1 0 0,0 1 1,-1 0-1,-14-4 0,2 2-6733</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1838,6 +2079,34 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'17'0,"0"24"0,5 44 0,-3-70 0,1 0 0,0 0 0,2 0 0,-1-1 0,2 0 0,9 18 0,-8-18 0,0-1 0,1 0 0,1-1 0,0 0 0,1 0 0,0-1 0,1 0 0,0-1 0,1 0 0,0-1 0,0-1 0,1 1 0,0-2 0,1 0 0,-1-1 0,1 0 0,28 7 0,12-1 0,0-3 0,74 2 0,46 8 0,-68-6 0,0-5 0,158-8 0,-105-3 0,-137 3 0,1-1 0,-1-2 0,0 0 0,0-1 0,0-1 0,0-2 0,-1 0 0,0-1 0,32-17 0,-46 20 0,0 0 0,-1-1 0,1 1 0,-1-2 0,-1 1 0,1-1 0,-1 1 0,0-2 0,6-11 0,33-78 0,-21 40 0,-14 40-136,-1-1-1,-1 1 1,0-1-1,-1-1 1,-1 1-1,-1-1 1,-1 0-1,-1 0 0,1-21 1,-4 21-6690</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-14T18:02:22.213"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">606 67 24575,'-1'-1'0,"1"0"0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,-29-11 0,23 9 0,-17-3 0,1 1 0,0 1 0,-1 1 0,0 1 0,0 1 0,0 1 0,-26 4 0,-22-1 0,44-4 0,11 1 0,0 0 0,1 1 0,-1 0 0,-21 6 0,34-6 0,0 0 0,0 1 0,0 0 0,0 0 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 0,0 1 0,0-1 0,-4 8 0,1 6 0,0-1 0,1 1 0,1 0 0,0 0 0,2 0 0,0 0 0,1 1 0,1-1 0,0 1 0,5 27 0,-4-42 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,6 0 0,10 2 0,0-2 0,0 0 0,0-1 0,20-2 0,-5 0 0,-30 2 0,23 0 0,0-1 0,0-1 0,0-2 0,40-9 0,-59 10 0,-1 1 0,0-1 0,1-1 0,-1 1 0,-1-1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-2-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,4-10 0,-2-4-17,-1 1-1,-1-1 1,-1 1-1,0-1 0,-2 0 1,-3-34-1,1 2-1224,2 33-5584</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1970,34 +2239,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-12-13T13:07:28.824"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'697'0,"2"-678"0,0 0 0,2-1 0,0 0 0,1 1 0,1-2 0,1 1 0,0-1 0,1 0 0,1 0 0,1-1 0,20 26 0,-22-33 0,1 1 0,0-2 0,1 1 0,0-1 0,1-1 0,-1 0 0,23 11 0,-14-9 0,0-1 0,0-1 0,1 0 0,24 4 0,-1-6 0,-1-2 0,1-2 0,46-4 0,8 0 0,531 3 0,-623 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-8 0,2-15 0,-1 0 0,-1-1 0,-1 1 0,-3-32 0,1 26 0,0-504 0,2 531 0,-2 1 0,1 0 0,0-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,1-1 0,-2 1 0,1 0 0,0 0 0,-1 0 0,-7-6 0,4 6 0,0-1 0,0 1 0,0 1 0,-1-1 0,1 1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-11 0 0,-86-9 0,-11 0 0,-808 10-1365,905 0-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2022-12-13T13:07:32.805"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -2010,7 +2251,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -2035,6 +2276,34 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">793 93 24575,'-134'-2'0,"-146"4"0,248 0 0,1 1 0,-1 2 0,1 1 0,0 1 0,0 2 0,1 1 0,-57 27 0,81-32 0,0-1 0,1 1 0,-1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,2 1 0,-1-1 0,1 1 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 1 0,0-1 0,1 1 0,-1-1 0,2 1 0,2 11 0,-2-12 0,1-1 0,-1 0 0,1 0 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,1 0 0,5 5 0,4 1 0,1-1 0,-1 0 0,1-1 0,18 7 0,-14-9 0,0 0 0,0-2 0,0 0 0,0-1 0,23 0 0,106-5 0,-60-1 0,-48 3 0,72 0 0,-1-4 0,126-22 0,-154 15 0,0 5 0,150 6 0,-88 3 0,1290-3 0,-1398 0 0,69-9 0,-97 8 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0-1 0,-1 1 0,1-2 0,-1 1 0,0-1 0,0-1 0,-1 1 0,9-9 0,-12 8 0,0-1 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,1 1 0,-2-15 0,0 8 0,0 0 0,0 0 0,-2 0 0,0 0 0,0 0 0,-9-20 0,6 24 0,1 1 0,-2 0 0,0 0 0,0 0 0,0 1 0,-1 1 0,0-1 0,0 1 0,-1 0 0,0 1 0,-1 0 0,1 1 0,-1 0 0,0 0 0,-17-5 0,-9-2 0,-1 1 0,-1 3 0,-41-6 0,-1 7 0,-152 6 0,102 4 0,-1301-3 0,1343 5 0,0 3 0,-116 28 0,93-15 0,-23 11-1365,111-26-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-12-13T13:07:43.146"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFC114"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">858 2 24575,'-132'-2'0,"-142"5"0,216 2 0,-78 18 0,110-17 0,0 2 0,1 0 0,-1 1 0,2 2 0,-31 17 0,49-24 0,0 0 0,0 1 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1 1 0,1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,1 7 0,-1-7 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 0 0,1 1 0,-1-2 0,1 1 0,0 0 0,0-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0-1 0,0 1 0,1-1 0,12 3 0,70 8 0,128 3 0,94-18 0,-112 0 0,1981 2 0,-2176 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,4-4 0,-2-2 0,0 1 0,0-1 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,0-12 0,-1 18 0,1-15 0,0 0 0,-1 0 0,-3-31 0,2 46 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-7-2 0,-10-2 0,0 0 0,0 1 0,-1 1 0,0 1 0,-42-3 0,-114 9 0,76 0 0,-1986-2 0,2069 0-341,0-2 0,0 0-1,-24-7 1,26 5-6485</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2335,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9625E5D8-A90D-471A-80E2-EA69A451E5EE}">
-  <dimension ref="A3:Q294"/>
+  <dimension ref="A3:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,49 +2615,43 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
@@ -2403,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +2697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>20</v>
       </c>
@@ -2448,7 +2711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>28</v>
@@ -2480,7 +2743,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>37</v>
       </c>
@@ -2510,10 +2773,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2530,48 +2793,48 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -2732,12 +2995,6 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2752,9 +3009,12 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2770,22 +3030,22 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2793,11 +3053,11 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="3" t="s">
         <v>46</v>
       </c>
@@ -2867,7 +3127,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -2905,12 +3165,23 @@
         <v>0</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -2948,12 +3219,23 @@
         <v>1</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -2991,12 +3273,23 @@
         <v>0</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -3034,25 +3327,36 @@
         <v>1</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37" s="4">
@@ -3077,25 +3381,36 @@
         <v>0</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="4">
@@ -3124,8 +3439,9 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -3163,25 +3479,30 @@
         <v>0</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="4">
@@ -3211,7 +3532,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -3254,20 +3575,20 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="5">
@@ -3297,7 +3618,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3315,7 +3636,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3333,7 +3654,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3351,7 +3672,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3372,7 +3693,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3390,7 +3711,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3618,25 +3939,25 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3888,25 +4209,25 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -4071,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4109,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -4158,25 +4479,25 @@
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -4360,15 +4681,15 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4417,22 +4738,22 @@
       <c r="Q83" s="2"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7" t="s">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -4440,11 +4761,11 @@
       <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="3" t="s">
         <v>46</v>
       </c>
@@ -4731,18 +5052,18 @@
       <c r="Q91" s="2"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -4750,18 +5071,18 @@
       <c r="Q92" s="2"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4800,7 +5121,7 @@
       <c r="K94" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L94" s="15"/>
+      <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -4839,7 +5160,7 @@
       <c r="K95" s="3">
         <v>0</v>
       </c>
-      <c r="L95" s="15"/>
+      <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -4878,7 +5199,7 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="15"/>
+      <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -4983,25 +5304,25 @@
       <c r="Q99" s="2"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -5262,25 +5583,25 @@
       <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H109" s="6" t="s">
+      <c r="H109" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -5541,25 +5862,25 @@
       <c r="Q117" s="2"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H118" s="6" t="s">
+      <c r="H118" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5751,15 +6072,15 @@
       <c r="Q125" s="2"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -8798,7 +9119,7 @@
       <c r="Q294" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="B126:E126"/>
     <mergeCell ref="B100:E100"/>
     <mergeCell ref="H100:K100"/>
@@ -8820,10 +9141,11 @@
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="J19:Q20"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="F30:L30"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="J55:M55"/>
+    <mergeCell ref="O39:R39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
